--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA3DE3-F824-4780-B9B1-7A6EC96F867E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D01DD7-9436-4959-9D21-E19B96962D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA31C8CF-D1CA-4FA3-98BD-8BE11FFE4E4D}"/>
+    <workbookView xWindow="3060" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{AA31C8CF-D1CA-4FA3-98BD-8BE11FFE4E4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>24767.69921875</v>
+        <v>24536.30078125</v>
       </c>
       <c r="C2" t="n">
-        <v>18.13815300407393</v>
+        <v>17.0344177005709</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>24536.30078125</v>
+        <v>24588.599609375</v>
       </c>
       <c r="C2" t="n">
-        <v>17.0344177005709</v>
+        <v>17.2838751453015</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>24588.599609375</v>
+        <v>24789.30078125</v>
       </c>
       <c r="C2" t="n">
-        <v>17.2838751453015</v>
+        <v>18.24118916715121</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>24789.30078125</v>
+        <v>24846.19921875</v>
       </c>
       <c r="C2" t="n">
-        <v>18.24118916715121</v>
+        <v>18.51258604805242</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>24846.19921875</v>
+        <v>25067.900390625</v>
       </c>
       <c r="C2" t="n">
-        <v>18.51258604805242</v>
+        <v>19.57006687147598</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25067.900390625</v>
+        <v>25130.80078125</v>
       </c>
       <c r="C2" t="n">
-        <v>19.57006687147598</v>
+        <v>19.87009215464992</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25130.80078125</v>
+        <v>25281.599609375</v>
       </c>
       <c r="C2" t="n">
-        <v>19.87009215464992</v>
+        <v>20.58937959723883</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25281.599609375</v>
+        <v>25311.5</v>
       </c>
       <c r="C2" t="n">
-        <v>20.58937959723883</v>
+        <v>20.731999906511</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25311.5</v>
+        <v>25434.099609375</v>
       </c>
       <c r="C2" t="n">
-        <v>20.731999906511</v>
+        <v>21.31678137057282</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25434.099609375</v>
+        <v>25468.5</v>
       </c>
       <c r="C2" t="n">
-        <v>21.31678137057282</v>
+        <v>21.48086599446795</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25468.5</v>
+        <v>25289.150390625</v>
       </c>
       <c r="C2" t="n">
-        <v>21.48086599446795</v>
+        <v>20.625395673772</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25289.150390625</v>
+        <v>25419.5</v>
       </c>
       <c r="C2" t="n">
-        <v>20.625395673772</v>
+        <v>21.24714345746226</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25419.5</v>
+        <v>25473.30078125</v>
       </c>
       <c r="C2" t="n">
-        <v>21.24714345746226</v>
+        <v>21.50376498984261</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25473.30078125</v>
+        <v>25808.25</v>
       </c>
       <c r="C2" t="n">
-        <v>21.50376498984261</v>
+        <v>23.10142174850216</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25808.25</v>
+        <v>25533.099609375</v>
       </c>
       <c r="C2" t="n">
-        <v>23.10142174850216</v>
+        <v>21.78899629227815</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -480,13 +480,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>25533.099609375</v>
+        <v>25241.80078125</v>
       </c>
       <c r="C2" t="n">
-        <v>21.78899629227815</v>
+        <v>20.39954524868317</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B2" t="n">
-        <v>25279.349609375</v>
+        <v>25569.80078125</v>
       </c>
       <c r="C2" t="n">
-        <v>21.69248177875371</v>
+        <v>23.09068721074425</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B2" t="n">
-        <v>25569.80078125</v>
+        <v>25534.5</v>
       </c>
       <c r="C2" t="n">
-        <v>23.09068721074425</v>
+        <v>22.92075247170144</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B2" t="n">
-        <v>25534.5</v>
+        <v>25442.900390625</v>
       </c>
       <c r="C2" t="n">
-        <v>22.92075247170144</v>
+        <v>22.47980031244674</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B2" t="n">
-        <v>25442.900390625</v>
+        <v>25658.900390625</v>
       </c>
       <c r="C2" t="n">
-        <v>22.47980031244674</v>
+        <v>23.51960459817342</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B2" t="n">
-        <v>25658.900390625</v>
+        <v>25631.80078125</v>
       </c>
       <c r="C2" t="n">
-        <v>23.51960459817342</v>
+        <v>23.38914955201765</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B2" t="n">
-        <v>25631.80078125</v>
+        <v>25563.099609375</v>
       </c>
       <c r="C2" t="n">
-        <v>23.38914955201765</v>
+        <v>23.05842838095251</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B2" t="n">
-        <v>25563.099609375</v>
+        <v>25698.5</v>
       </c>
       <c r="C2" t="n">
-        <v>23.05842838095251</v>
+        <v>23.71023350345687</v>
       </c>
     </row>
     <row r="3">

--- a/data/tsx.xlsx
+++ b/data/tsx.xlsx
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B2" t="n">
-        <v>25698.5</v>
+        <v>25483.19921875</v>
       </c>
       <c r="C2" t="n">
-        <v>23.71023350345687</v>
+        <v>22.67379519297517</v>
       </c>
     </row>
     <row r="3">
